--- a/ep/ep/export/flourish/Romania_party_group.xlsx
+++ b/ep/ep/export/flourish/Romania_party_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
   <si>
     <t>name1</t>
   </si>
@@ -88,7 +88,7 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
@@ -107,13 +107,31 @@
   </si>
   <si>
     <t>S&amp;D</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +146,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,16 +187,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,6 +561,9 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E2">
         <v>0.962</v>
       </c>
@@ -562,6 +596,9 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M3">
         <v>0.7</v>
       </c>
@@ -588,6 +625,9 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E4">
         <v>0.543</v>
       </c>
@@ -614,6 +654,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E5">
         <v>0.597</v>
       </c>
@@ -637,6 +680,9 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E6">
         <v>0.708</v>
       </c>
@@ -669,6 +715,9 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E7">
         <v>0.759</v>
       </c>
@@ -701,6 +750,9 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E8">
         <v>0.668</v>
       </c>
@@ -715,6 +767,9 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E9">
         <v>0.644</v>
       </c>
@@ -729,6 +784,9 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E10">
         <v>0.53</v>
       </c>
@@ -743,6 +801,9 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E11">
         <v>0.881</v>
       </c>
@@ -757,6 +818,9 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E12">
         <v>0.542</v>
       </c>
@@ -771,6 +835,9 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E13">
         <v>0.638</v>
       </c>
@@ -812,6 +879,9 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M14">
         <v>0.787</v>
       </c>
@@ -838,6 +908,9 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E15">
         <v>0.8070000000000001</v>
       </c>
@@ -864,6 +937,9 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E16">
         <v>0.73</v>
       </c>
@@ -905,6 +981,9 @@
       <c r="C17" t="s">
         <v>30</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E17">
         <v>0.697</v>
       </c>
@@ -946,6 +1025,9 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L18">
         <v>0.829</v>
       </c>
@@ -972,6 +1054,9 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M19">
         <v>0.8100000000000001</v>
       </c>
@@ -995,6 +1080,9 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M20">
         <v>0.5659999999999999</v>
       </c>
@@ -1018,6 +1106,9 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L21">
         <v>0.861</v>
       </c>
@@ -1035,6 +1126,9 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L22">
         <v>0.975</v>
       </c>
@@ -1061,6 +1155,9 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L23">
         <v>0.82</v>
       </c>
@@ -1087,6 +1184,9 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E24">
         <v>0.847</v>
       </c>
@@ -1137,6 +1237,9 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M25">
         <v>0.821</v>
       </c>
@@ -1163,6 +1266,9 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E26">
         <v>0.5679999999999999</v>
       </c>
@@ -1189,6 +1295,9 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E27">
         <v>0.604</v>
       </c>
@@ -1227,6 +1336,9 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E28">
         <v>0.863</v>
       </c>
@@ -1277,6 +1389,9 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E29">
         <v>0.701</v>
       </c>
@@ -1327,6 +1442,9 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L30">
         <v>0.837</v>
       </c>
@@ -1341,6 +1459,9 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L31">
         <v>0.834</v>
       </c>
@@ -1355,6 +1476,9 @@
       <c r="C32" t="s">
         <v>29</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L32">
         <v>0.956</v>
       </c>
@@ -1369,6 +1493,9 @@
       <c r="C33" t="s">
         <v>30</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L33">
         <v>0.774</v>
       </c>
@@ -1383,6 +1510,9 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E34">
         <v>0.5669999999999999</v>
       </c>
@@ -1415,6 +1545,9 @@
       <c r="C35" t="s">
         <v>28</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E35">
         <v>0.832</v>
       </c>
@@ -1429,6 +1562,9 @@
       <c r="C36" t="s">
         <v>18</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E36">
         <v>0.698</v>
       </c>
@@ -1461,6 +1597,9 @@
       <c r="C37" t="s">
         <v>29</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E37">
         <v>0.608</v>
       </c>
@@ -1493,6 +1632,9 @@
       <c r="C38" t="s">
         <v>30</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E38">
         <v>0.578</v>
       </c>
@@ -1525,6 +1667,9 @@
       <c r="C39" t="s">
         <v>26</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E39">
         <v>0.762</v>
       </c>
@@ -1575,6 +1720,9 @@
       <c r="C40" t="s">
         <v>27</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M40">
         <v>0.702</v>
       </c>
@@ -1601,6 +1749,9 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E41">
         <v>0.548</v>
       </c>
@@ -1627,6 +1778,9 @@
       <c r="C42" t="s">
         <v>18</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E42">
         <v>0.631</v>
       </c>
@@ -1665,6 +1819,9 @@
       <c r="C43" t="s">
         <v>29</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E43">
         <v>0.646</v>
       </c>
@@ -1715,6 +1872,9 @@
       <c r="C44" t="s">
         <v>30</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E44">
         <v>0.952</v>
       </c>
@@ -1765,6 +1925,9 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E45">
         <v>0.6870000000000001</v>
       </c>
@@ -1815,6 +1978,9 @@
       <c r="C46" t="s">
         <v>27</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M46">
         <v>0.793</v>
       </c>
@@ -1841,6 +2007,9 @@
       <c r="C47" t="s">
         <v>28</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E47">
         <v>0.5639999999999999</v>
       </c>
@@ -1867,6 +2036,9 @@
       <c r="C48" t="s">
         <v>18</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E48">
         <v>0.615</v>
       </c>
@@ -1905,6 +2077,9 @@
       <c r="C49" t="s">
         <v>29</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E49">
         <v>0.892</v>
       </c>
@@ -1955,6 +2130,9 @@
       <c r="C50" t="s">
         <v>30</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E50">
         <v>0.631</v>
       </c>
@@ -2005,6 +2183,9 @@
       <c r="C51" t="s">
         <v>26</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L51">
         <v>0.8090000000000001</v>
       </c>
@@ -2025,6 +2206,9 @@
       <c r="C52" t="s">
         <v>27</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M52">
         <v>0.705</v>
       </c>
@@ -2042,6 +2226,9 @@
       <c r="C53" t="s">
         <v>28</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M53">
         <v>0.511</v>
       </c>
@@ -2059,6 +2246,9 @@
       <c r="C54" t="s">
         <v>29</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L54">
         <v>0.8169999999999999</v>
       </c>
@@ -2079,6 +2269,9 @@
       <c r="C55" t="s">
         <v>30</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L55">
         <v>0.99</v>
       </c>
@@ -2090,6 +2283,62 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Romania_party_group.xlsx
+++ b/ep/ep/export/flourish/Romania_party_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>name1</t>
   </si>
@@ -100,10 +100,10 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
-  </si>
-  <si>
-    <t>PPE</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
   </si>
   <si>
     <t>S&amp;D</t>
@@ -115,13 +115,10 @@
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
-  </si>
-  <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
@@ -625,9 +622,6 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E4">
         <v>0.543</v>
       </c>
@@ -652,22 +646,31 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>0.597</v>
+        <v>0.708</v>
       </c>
       <c r="L5">
-        <v>0.889</v>
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.774</v>
+      </c>
+      <c r="N5">
+        <v>0.761</v>
+      </c>
+      <c r="O5">
+        <v>0.762</v>
       </c>
       <c r="P5">
-        <v>0.695</v>
+        <v>0.826</v>
       </c>
       <c r="Q5">
-        <v>0.924</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -678,31 +681,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>0.708</v>
+        <v>0.597</v>
       </c>
       <c r="L6">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="M6">
-        <v>0.774</v>
-      </c>
-      <c r="N6">
-        <v>0.761</v>
-      </c>
-      <c r="O6">
-        <v>0.762</v>
+        <v>0.889</v>
       </c>
       <c r="P6">
-        <v>0.826</v>
+        <v>0.695</v>
       </c>
       <c r="Q6">
-        <v>0.797</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -716,7 +710,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0.759</v>
@@ -767,9 +761,6 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E9">
         <v>0.644</v>
       </c>
@@ -782,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>0.53</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -799,13 +790,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>0.881</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -819,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0.542</v>
@@ -908,9 +899,6 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E15">
         <v>0.8070000000000001</v>
       </c>
@@ -938,7 +926,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0.73</v>
@@ -982,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0.697</v>
@@ -1080,9 +1068,6 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="M20">
         <v>0.5659999999999999</v>
       </c>
@@ -1104,16 +1089,25 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21">
-        <v>0.861</v>
+        <v>0.975</v>
+      </c>
+      <c r="M21">
+        <v>0.972</v>
+      </c>
+      <c r="N21">
+        <v>0.972</v>
+      </c>
+      <c r="O21">
+        <v>0.977</v>
       </c>
       <c r="P21">
-        <v>0.602</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1124,25 +1118,16 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22">
-        <v>0.975</v>
-      </c>
-      <c r="M22">
-        <v>0.972</v>
-      </c>
-      <c r="N22">
-        <v>0.972</v>
-      </c>
-      <c r="O22">
-        <v>0.977</v>
+        <v>0.861</v>
       </c>
       <c r="P22">
-        <v>0.97</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1156,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>0.82</v>
@@ -1266,9 +1251,6 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E26">
         <v>0.5679999999999999</v>
       </c>
@@ -1293,37 +1275,49 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>0.604</v>
+        <v>0.863</v>
+      </c>
+      <c r="F27">
+        <v>0.91</v>
       </c>
       <c r="G27">
-        <v>0.707</v>
+        <v>0.921</v>
       </c>
       <c r="H27">
-        <v>0.667</v>
+        <v>0.91</v>
       </c>
       <c r="I27">
-        <v>0.78</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J27">
-        <v>0.6889999999999999</v>
+        <v>0.922</v>
       </c>
       <c r="K27">
-        <v>0.791</v>
+        <v>0.912</v>
       </c>
       <c r="L27">
-        <v>0.832</v>
+        <v>0.919</v>
+      </c>
+      <c r="M27">
+        <v>0.954</v>
+      </c>
+      <c r="N27">
+        <v>0.962</v>
+      </c>
+      <c r="O27">
+        <v>0.973</v>
       </c>
       <c r="P27">
-        <v>0.643</v>
+        <v>0.972</v>
       </c>
       <c r="Q27">
-        <v>0.756</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1334,49 +1328,37 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>0.863</v>
-      </c>
-      <c r="F28">
-        <v>0.91</v>
+        <v>0.604</v>
       </c>
       <c r="G28">
-        <v>0.921</v>
+        <v>0.707</v>
       </c>
       <c r="H28">
-        <v>0.91</v>
+        <v>0.667</v>
       </c>
       <c r="I28">
-        <v>0.9360000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="J28">
-        <v>0.922</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K28">
-        <v>0.912</v>
+        <v>0.791</v>
       </c>
       <c r="L28">
-        <v>0.919</v>
-      </c>
-      <c r="M28">
-        <v>0.954</v>
-      </c>
-      <c r="N28">
-        <v>0.962</v>
-      </c>
-      <c r="O28">
-        <v>0.973</v>
+        <v>0.832</v>
       </c>
       <c r="P28">
-        <v>0.972</v>
+        <v>0.643</v>
       </c>
       <c r="Q28">
-        <v>0.968</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1390,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0.701</v>
@@ -1457,13 +1439,13 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31">
-        <v>0.834</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1474,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32">
-        <v>0.956</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -1494,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L33">
         <v>0.774</v>
@@ -1545,9 +1527,6 @@
       <c r="C35" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E35">
         <v>0.832</v>
       </c>
@@ -1560,31 +1539,31 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36">
-        <v>0.698</v>
+        <v>0.608</v>
       </c>
       <c r="G36">
-        <v>0.981</v>
+        <v>0.734</v>
       </c>
       <c r="H36">
-        <v>0.958</v>
+        <v>0.672</v>
       </c>
       <c r="I36">
-        <v>0.905</v>
+        <v>0.761</v>
       </c>
       <c r="J36">
-        <v>0.822</v>
+        <v>0.546</v>
       </c>
       <c r="K36">
-        <v>0.899</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="L36">
-        <v>0.929</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -1595,31 +1574,31 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>0.608</v>
+        <v>0.698</v>
       </c>
       <c r="G37">
-        <v>0.734</v>
+        <v>0.981</v>
       </c>
       <c r="H37">
-        <v>0.672</v>
+        <v>0.958</v>
       </c>
       <c r="I37">
-        <v>0.761</v>
+        <v>0.905</v>
       </c>
       <c r="J37">
-        <v>0.546</v>
+        <v>0.822</v>
       </c>
       <c r="K37">
-        <v>0.8149999999999999</v>
+        <v>0.899</v>
       </c>
       <c r="L37">
-        <v>0.902</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -1633,7 +1612,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>0.578</v>
@@ -1749,9 +1728,6 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E41">
         <v>0.548</v>
       </c>
@@ -1776,37 +1752,49 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0.631</v>
+        <v>0.646</v>
+      </c>
+      <c r="F42">
+        <v>0.8</v>
       </c>
       <c r="G42">
-        <v>0.675</v>
+        <v>0.737</v>
       </c>
       <c r="H42">
-        <v>0.787</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I42">
-        <v>0.891</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J42">
-        <v>0.761</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K42">
-        <v>0.895</v>
+        <v>0.79</v>
       </c>
       <c r="L42">
-        <v>0.891</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.789</v>
+      </c>
+      <c r="N42">
+        <v>0.775</v>
+      </c>
+      <c r="O42">
+        <v>0.737</v>
       </c>
       <c r="P42">
-        <v>0.714</v>
+        <v>0.796</v>
       </c>
       <c r="Q42">
-        <v>0.983</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -1817,49 +1805,37 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>0.646</v>
-      </c>
-      <c r="F43">
-        <v>0.8</v>
+        <v>0.631</v>
       </c>
       <c r="G43">
-        <v>0.737</v>
+        <v>0.675</v>
       </c>
       <c r="H43">
-        <v>0.6820000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="I43">
-        <v>0.8070000000000001</v>
+        <v>0.891</v>
       </c>
       <c r="J43">
-        <v>0.8169999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="K43">
-        <v>0.79</v>
+        <v>0.895</v>
       </c>
       <c r="L43">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M43">
-        <v>0.789</v>
-      </c>
-      <c r="N43">
-        <v>0.775</v>
-      </c>
-      <c r="O43">
-        <v>0.737</v>
+        <v>0.891</v>
       </c>
       <c r="P43">
-        <v>0.796</v>
+        <v>0.714</v>
       </c>
       <c r="Q43">
-        <v>0.798</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -1873,7 +1849,7 @@
         <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>0.952</v>
@@ -2007,9 +1983,6 @@
       <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E47">
         <v>0.5639999999999999</v>
       </c>
@@ -2034,37 +2007,49 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>0.615</v>
+        <v>0.892</v>
+      </c>
+      <c r="F48">
+        <v>0.918</v>
       </c>
       <c r="G48">
-        <v>0.737</v>
+        <v>0.962</v>
       </c>
       <c r="H48">
-        <v>0.667</v>
+        <v>0.962</v>
       </c>
       <c r="I48">
-        <v>0.774</v>
+        <v>0.973</v>
       </c>
       <c r="J48">
-        <v>0.667</v>
+        <v>0.978</v>
       </c>
       <c r="K48">
-        <v>0.776</v>
+        <v>0.958</v>
       </c>
       <c r="L48">
-        <v>0.853</v>
+        <v>0.96</v>
+      </c>
+      <c r="M48">
+        <v>0.969</v>
+      </c>
+      <c r="N48">
+        <v>0.965</v>
+      </c>
+      <c r="O48">
+        <v>0.975</v>
       </c>
       <c r="P48">
-        <v>0.661</v>
+        <v>0.961</v>
       </c>
       <c r="Q48">
-        <v>0.787</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -2075,49 +2060,37 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>0.892</v>
-      </c>
-      <c r="F49">
-        <v>0.918</v>
+        <v>0.615</v>
       </c>
       <c r="G49">
-        <v>0.962</v>
+        <v>0.737</v>
       </c>
       <c r="H49">
-        <v>0.962</v>
+        <v>0.667</v>
       </c>
       <c r="I49">
-        <v>0.973</v>
+        <v>0.774</v>
       </c>
       <c r="J49">
-        <v>0.978</v>
+        <v>0.667</v>
       </c>
       <c r="K49">
-        <v>0.958</v>
+        <v>0.776</v>
       </c>
       <c r="L49">
-        <v>0.96</v>
-      </c>
-      <c r="M49">
-        <v>0.969</v>
-      </c>
-      <c r="N49">
-        <v>0.965</v>
-      </c>
-      <c r="O49">
-        <v>0.975</v>
+        <v>0.853</v>
       </c>
       <c r="P49">
-        <v>0.961</v>
+        <v>0.661</v>
       </c>
       <c r="Q49">
-        <v>0.949</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -2131,7 +2104,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>0.631</v>
@@ -2226,9 +2199,6 @@
       <c r="C53" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="M53">
         <v>0.511</v>
       </c>
@@ -2247,7 +2217,7 @@
         <v>29</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L54">
         <v>0.8169999999999999</v>
@@ -2270,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L55">
         <v>0.99</v>
@@ -2286,58 +2256,49 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D27" r:id="rId21"/>
+    <hyperlink ref="D28" r:id="rId22"/>
+    <hyperlink ref="D29" r:id="rId23"/>
+    <hyperlink ref="D30" r:id="rId24"/>
+    <hyperlink ref="D31" r:id="rId25"/>
+    <hyperlink ref="D32" r:id="rId26"/>
+    <hyperlink ref="D33" r:id="rId27"/>
+    <hyperlink ref="D34" r:id="rId28"/>
+    <hyperlink ref="D36" r:id="rId29"/>
+    <hyperlink ref="D37" r:id="rId30"/>
+    <hyperlink ref="D38" r:id="rId31"/>
+    <hyperlink ref="D39" r:id="rId32"/>
+    <hyperlink ref="D40" r:id="rId33"/>
+    <hyperlink ref="D42" r:id="rId34"/>
+    <hyperlink ref="D43" r:id="rId35"/>
+    <hyperlink ref="D44" r:id="rId36"/>
+    <hyperlink ref="D45" r:id="rId37"/>
+    <hyperlink ref="D46" r:id="rId38"/>
+    <hyperlink ref="D48" r:id="rId39"/>
+    <hyperlink ref="D49" r:id="rId40"/>
+    <hyperlink ref="D50" r:id="rId41"/>
+    <hyperlink ref="D51" r:id="rId42"/>
+    <hyperlink ref="D52" r:id="rId43"/>
+    <hyperlink ref="D54" r:id="rId44"/>
+    <hyperlink ref="D55" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ep/ep/export/flourish/Romania_party_group.xlsx
+++ b/ep/ep/export/flourish/Romania_party_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
   <si>
     <t>name1</t>
   </si>
@@ -100,7 +100,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
@@ -622,6 +625,9 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E4">
         <v>0.543</v>
       </c>
@@ -649,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0.708</v>
@@ -684,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0.597</v>
@@ -710,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0.759</v>
@@ -761,6 +767,9 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E9">
         <v>0.644</v>
       </c>
@@ -776,7 +785,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0.881</v>
@@ -793,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0.53</v>
@@ -810,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0.542</v>
@@ -899,6 +908,9 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E15">
         <v>0.8070000000000001</v>
       </c>
@@ -926,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0.73</v>
@@ -970,7 +982,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0.697</v>
@@ -1068,6 +1080,9 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M20">
         <v>0.5659999999999999</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L21">
         <v>0.975</v>
@@ -1121,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>0.861</v>
@@ -1141,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23">
         <v>0.82</v>
@@ -1251,6 +1266,9 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E26">
         <v>0.5679999999999999</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0.863</v>
@@ -1331,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0.604</v>
@@ -1372,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0.701</v>
@@ -1442,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L31">
         <v>0.956</v>
@@ -1459,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>0.834</v>
@@ -1476,7 +1494,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L33">
         <v>0.774</v>
@@ -1527,6 +1545,9 @@
       <c r="C35" t="s">
         <v>28</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E35">
         <v>0.832</v>
       </c>
@@ -1542,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0.608</v>
@@ -1577,7 +1598,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>0.698</v>
@@ -1612,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0.578</v>
@@ -1728,6 +1749,9 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E41">
         <v>0.548</v>
       </c>
@@ -1755,7 +1779,7 @@
         <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>0.646</v>
@@ -1808,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>0.631</v>
@@ -1849,7 +1873,7 @@
         <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>0.952</v>
@@ -1983,6 +2007,9 @@
       <c r="C47" t="s">
         <v>28</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E47">
         <v>0.5639999999999999</v>
       </c>
@@ -2010,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>0.892</v>
@@ -2063,7 +2090,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>0.615</v>
@@ -2104,7 +2131,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>0.631</v>
@@ -2199,6 +2226,9 @@
       <c r="C53" t="s">
         <v>28</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M53">
         <v>0.511</v>
       </c>
@@ -2217,7 +2247,7 @@
         <v>29</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L54">
         <v>0.8169999999999999</v>
@@ -2240,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L55">
         <v>0.99</v>
@@ -2256,49 +2286,58 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D27" r:id="rId21"/>
-    <hyperlink ref="D28" r:id="rId22"/>
-    <hyperlink ref="D29" r:id="rId23"/>
-    <hyperlink ref="D30" r:id="rId24"/>
-    <hyperlink ref="D31" r:id="rId25"/>
-    <hyperlink ref="D32" r:id="rId26"/>
-    <hyperlink ref="D33" r:id="rId27"/>
-    <hyperlink ref="D34" r:id="rId28"/>
-    <hyperlink ref="D36" r:id="rId29"/>
-    <hyperlink ref="D37" r:id="rId30"/>
-    <hyperlink ref="D38" r:id="rId31"/>
-    <hyperlink ref="D39" r:id="rId32"/>
-    <hyperlink ref="D40" r:id="rId33"/>
-    <hyperlink ref="D42" r:id="rId34"/>
-    <hyperlink ref="D43" r:id="rId35"/>
-    <hyperlink ref="D44" r:id="rId36"/>
-    <hyperlink ref="D45" r:id="rId37"/>
-    <hyperlink ref="D46" r:id="rId38"/>
-    <hyperlink ref="D48" r:id="rId39"/>
-    <hyperlink ref="D49" r:id="rId40"/>
-    <hyperlink ref="D50" r:id="rId41"/>
-    <hyperlink ref="D51" r:id="rId42"/>
-    <hyperlink ref="D52" r:id="rId43"/>
-    <hyperlink ref="D54" r:id="rId44"/>
-    <hyperlink ref="D55" r:id="rId45"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
